--- a/resultados/comportamentoMMQ_slot06.xlsx
+++ b/resultados/comportamentoMMQ_slot06.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.07112677091783795</v>
+        <v>0.9879068601334673</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0099165652912</v>
+        <v>855.0524858459767</v>
       </c>
       <c r="H2" t="n">
-        <v>25101.2255309459</v>
+        <v>47640335.69120435</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.01535150467841437</v>
+        <v>0.921350420803817</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>563.9732146938452</v>
+        <v>43587.18469847287</v>
       </c>
       <c r="H3" t="n">
-        <v>24849.35980440483</v>
+        <v>47526295.25288893</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2065843140229325</v>
+        <v>0.9878391257057536</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001336874939643804</v>
+        <v>1.792508696186027e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>24433.51813013169</v>
+        <v>47640361.67079366</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.2065843140229325</v>
+        <v>0.9878391257057536</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.001337768955297</v>
+        <v>1.000017925247617</v>
       </c>
       <c r="H5" t="n">
-        <v>24433.51813013169</v>
+        <v>47640361.67079366</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1447867144607606</v>
+        <v>0.9215006231973513</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04850585925465088</v>
+        <v>0.0009138556524547103</v>
       </c>
       <c r="H6" t="n">
-        <v>22157.33212423225</v>
+        <v>47526582.68776236</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.0769614861425186</v>
+        <v>0.9999390627373131</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>24355.38077056893</v>
+        <v>47629988.23111176</v>
       </c>
       <c r="G7" t="n">
-        <v>59.30410231537411</v>
+        <v>1243.725738080124</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2203815897893178</v>
+        <v>-2.573995047908257</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.0008094346169617309</v>
+        <v>0.4031162963524029</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>46.72963679024379</v>
+        <v>-5002.709080803551</v>
       </c>
       <c r="H8" t="n">
-        <v>20296.31028340473</v>
+        <v>48264211.0623342</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.001767287908529409</v>
+        <v>0.3815860262244615</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-1708.662306102147</v>
+        <v>-206177.476599158</v>
       </c>
       <c r="H9" t="n">
-        <v>27945.48525817291</v>
+        <v>48765955.81070518</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -740,7 +740,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0.403945329304848</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -749,8 +751,12 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>-0.000103835730320336</v>
+      </c>
+      <c r="H10" t="n">
+        <v>48263186.46926282</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -758,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +772,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.403945329304848</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -775,8 +783,12 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>0.9998961696604226</v>
+      </c>
+      <c r="H11" t="n">
+        <v>48263186.46926282</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -784,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -792,7 +804,9 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0.3812944931206984</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -801,8 +815,12 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.004273372106809632</v>
+      </c>
+      <c r="H12" t="n">
+        <v>48767297.44045158</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -810,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
+          <t>bcsstm20.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.02450268966582421</v>
+        <v>0.4595613469539425</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -827,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>33523.68177930079</v>
+        <v>48429928.79509126</v>
       </c>
       <c r="G13" t="n">
-        <v>-945.3232254019615</v>
+        <v>-12852.84656186833</v>
       </c>
       <c r="H13" t="n">
-        <v>12.55763116698994</v>
+        <v>66.52658882258166</v>
       </c>
     </row>
     <row r="14">
@@ -842,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -851,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.01651518844866801</v>
+        <v>0.8675115562802699</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -862,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.005706156909611797</v>
+        <v>5016.567680114019</v>
       </c>
       <c r="H14" t="n">
-        <v>12.91345241681609</v>
+        <v>39008901.78900647</v>
       </c>
     </row>
     <row r="15">
@@ -874,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -883,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.01194455583408629</v>
+        <v>0.9803171114877061</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -894,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1831910642549455</v>
+        <v>254638.2805864523</v>
       </c>
       <c r="H15" t="n">
-        <v>12.56253075294353</v>
+        <v>38331079.32780724</v>
       </c>
     </row>
     <row r="16">
@@ -906,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -915,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.04488633862549927</v>
+        <v>0.8661429707238815</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -926,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0007831158558591087</v>
+        <v>0.000127709090566724</v>
       </c>
       <c r="H16" t="n">
-        <v>12.54741600338243</v>
+        <v>39009302.87908922</v>
       </c>
     </row>
     <row r="17">
@@ -938,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -947,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.04488633862549927</v>
+        <v>0.8661429707238815</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -958,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.00078342257114</v>
+        <v>1.00012771724572</v>
       </c>
       <c r="H17" t="n">
-        <v>12.54741600338243</v>
+        <v>39009302.87908922</v>
       </c>
     </row>
     <row r="18">
@@ -970,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -979,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.08838175502016297</v>
+        <v>0.9804588224955972</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -990,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.04148275364875387</v>
+        <v>0.006488033133180362</v>
       </c>
       <c r="H18" t="n">
-        <v>11.23176220221839</v>
+        <v>38341091.46928057</v>
       </c>
     </row>
     <row r="19">
@@ -1002,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1011,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.02841912358010738</v>
+        <v>0.9899713750983324</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1019,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12.52246126535615</v>
+        <v>38821555.0537608</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02462508359315753</v>
+        <v>12838.77672903067</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0001538124120613469</v>
+        <v>-57.94228925123522</v>
       </c>
     </row>
     <row r="20">
@@ -1034,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1043,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.002592161141870862</v>
+        <v>0.01151211908942925</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1054,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004585808131002303</v>
+        <v>15981.03370740822</v>
       </c>
       <c r="H20" t="n">
-        <v>13.1580043964953</v>
+        <v>38662693.86826332</v>
       </c>
     </row>
     <row r="21">
@@ -1066,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1075,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6.09354825249418e-05</v>
+        <v>0.01727607455407962</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1086,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01677241886111657</v>
+        <v>665868.1806426452</v>
       </c>
       <c r="H21" t="n">
-        <v>13.38859592324619</v>
+        <v>36978964.57472844</v>
       </c>
     </row>
     <row r="22">
@@ -1098,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1107,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.02677651796475613</v>
+        <v>0.0205950414793087</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1118,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.001228876011227706</v>
+        <v>0.0005525492335146687</v>
       </c>
       <c r="H22" t="n">
-        <v>12.57874841947284</v>
+        <v>38251345.6683153</v>
       </c>
     </row>
     <row r="23">
@@ -1130,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1139,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02677651796475613</v>
+        <v>0.0205950414793087</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1150,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.001229631388743</v>
+        <v>1.000552701916963</v>
       </c>
       <c r="H23" t="n">
-        <v>12.57874841947284</v>
+        <v>38251345.6683153</v>
       </c>
     </row>
     <row r="24">
@@ -1162,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1171,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.04584150191964972</v>
+        <v>0.0240027446642077</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1182,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0383562486786113</v>
+        <v>0.02028890433988638</v>
       </c>
       <c r="H24" t="n">
-        <v>11.58701529022762</v>
+        <v>36448262.79267019</v>
       </c>
     </row>
     <row r="25">
@@ -1194,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
+          <t>bcsstm19.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1203,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.003460879716760498</v>
+        <v>0.02722549959184635</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1211,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13.02424745184865</v>
+        <v>37318877.04028971</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01500842719437843</v>
+        <v>96156.8755839134</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0001371397245181067</v>
+        <v>-871.4765421359224</v>
       </c>
     </row>
     <row r="26">
@@ -1226,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1235,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.01628865308098057</v>
+        <v>0.6388330789699883</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1246,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-13270.5261206899</v>
+        <v>0.01474691627934495</v>
       </c>
       <c r="H26" t="n">
-        <v>49024381.55488441</v>
+        <v>31.35976932705512</v>
       </c>
     </row>
     <row r="27">
@@ -1258,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1267,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.1100634768705116</v>
+        <v>0.7884503989483821</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1278,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-1545727.988466112</v>
+        <v>0.1706226871316686</v>
       </c>
       <c r="H27" t="n">
-        <v>54242686.30915353</v>
+        <v>31.12452739452732</v>
       </c>
     </row>
     <row r="28">
@@ -1290,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1299,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.01435553156732731</v>
+        <v>0.6380534033210179</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1310,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.0001758933519033536</v>
+        <v>0.0004684400783371872</v>
       </c>
       <c r="H28" t="n">
-        <v>48553628.65202782</v>
+        <v>31.35987746133024</v>
       </c>
     </row>
     <row r="29">
@@ -1322,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1331,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.01435553156732731</v>
+        <v>0.6380534033210179</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1342,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9998241221164254</v>
+        <v>1.000468549813525</v>
       </c>
       <c r="H29" t="n">
-        <v>48553628.65202782</v>
+        <v>31.35987746133024</v>
       </c>
     </row>
     <row r="30">
@@ -1354,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1363,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1024813601132523</v>
+        <v>0.7877378658181421</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1374,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02105853372732757</v>
+        <v>0.005420738576283513</v>
       </c>
       <c r="H30" t="n">
-        <v>52149871.70859843</v>
+        <v>31.12634979303925</v>
       </c>
     </row>
     <row r="31">
@@ -1386,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1395,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.04602564019568272</v>
+        <v>0.9265703645050244</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1403,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50749247.55719177</v>
+        <v>31.03887754710236</v>
       </c>
       <c r="G31" t="n">
-        <v>-83197.52621423088</v>
+        <v>0.07837201058032821</v>
       </c>
       <c r="H31" t="n">
-        <v>475.693878187352</v>
+        <v>-0.002766308447868804</v>
       </c>
     </row>
     <row r="32">
@@ -1418,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1427,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.0325620752997624</v>
+        <v>0.6616656260343575</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1438,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-27438.71643114932</v>
+        <v>-0.003991270504758752</v>
       </c>
       <c r="H32" t="n">
-        <v>49968340.2195376</v>
+        <v>31.61670484623681</v>
       </c>
     </row>
     <row r="33">
@@ -1450,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1459,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.1475258567112204</v>
+        <v>0.7588319360765003</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1470,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-2049846.47273458</v>
+        <v>-0.03268311016340553</v>
       </c>
       <c r="H33" t="n">
-        <v>56104467.25491933</v>
+        <v>31.65165484962685</v>
       </c>
     </row>
     <row r="34">
@@ -1482,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1491,7 +1509,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.03543052255239451</v>
+        <v>0.6617455411120814</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1502,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0004038924735996898</v>
+        <v>-0.0001263435977049846</v>
       </c>
       <c r="H34" t="n">
-        <v>49375390.02161735</v>
+        <v>31.61671356830039</v>
       </c>
     </row>
     <row r="35">
@@ -1514,7 +1532,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1523,7 +1541,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.03543052255239451</v>
+        <v>0.6617455411120814</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1534,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9995961890799855</v>
+        <v>0.9998736643833113</v>
       </c>
       <c r="H35" t="n">
-        <v>49375390.02161735</v>
+        <v>31.61671356830039</v>
       </c>
     </row>
     <row r="36">
@@ -1546,7 +1564,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1555,7 +1573,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.1469671020797563</v>
+        <v>0.7589076983028008</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1566,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.02887131438335685</v>
+        <v>-0.001034572448177825</v>
       </c>
       <c r="H36" t="n">
-        <v>53779036.3617055</v>
+        <v>31.65171111330366</v>
       </c>
     </row>
     <row r="37">
@@ -1578,7 +1596,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
+          <t>bcsstm11.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1587,7 +1605,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.07203446063746598</v>
+        <v>0.9402414330332545</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1595,13 +1613,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>52231113.80571934</v>
+        <v>31.70641760206505</v>
       </c>
       <c r="G37" t="n">
-        <v>-145496.4687536732</v>
+        <v>-0.02791467205895886</v>
       </c>
       <c r="H37" t="n">
-        <v>1035.594318618628</v>
+        <v>0.001495212597137071</v>
       </c>
     </row>
     <row r="38">
@@ -1610,7 +1628,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1619,7 +1637,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1554603649659622</v>
+        <v>0.6016640289845312</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1630,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.69336606355966</v>
+        <v>1.114148315397363e-05</v>
       </c>
       <c r="H38" t="n">
-        <v>90.97899686731849</v>
+        <v>0.009484985394904786</v>
       </c>
     </row>
     <row r="39">
@@ -1642,7 +1660,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1651,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.3921278607802945</v>
+        <v>0.8010579625747951</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1662,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-49.62746725745303</v>
+        <v>0.0001861277375671648</v>
       </c>
       <c r="H39" t="n">
-        <v>146.7372284513954</v>
+        <v>0.009167535109346977</v>
       </c>
     </row>
     <row r="40">
@@ -1674,7 +1692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1683,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.1486590713112405</v>
+        <v>0.5980325835443868</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1694,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.03847693276358423</v>
+        <v>0.001160554922321731</v>
       </c>
       <c r="H40" t="n">
-        <v>51.33103545081209</v>
+        <v>0.00948483946242489</v>
       </c>
     </row>
     <row r="41">
@@ -1706,7 +1724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1715,7 +1733,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.1486590713112405</v>
+        <v>0.5980325835443868</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1726,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.96225390102204</v>
+        <v>1.001161228626784</v>
       </c>
       <c r="H41" t="n">
-        <v>51.33103545081209</v>
+        <v>0.00948483946242489</v>
       </c>
     </row>
     <row r="42">
@@ -1738,7 +1756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1747,7 +1765,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.3810746923094742</v>
+        <v>0.7978354049954052</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1758,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.4101507071936497</v>
+        <v>0.01940765530653821</v>
       </c>
       <c r="H42" t="n">
-        <v>81.6201996377871</v>
+        <v>0.00917584027102838</v>
       </c>
     </row>
     <row r="43">
@@ -1770,7 +1788,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1779,7 +1797,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.3646278958188497</v>
+        <v>0.9091367360575119</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1787,13 +1805,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>165.6281196746193</v>
+        <v>0.009191614216461686</v>
       </c>
       <c r="G43" t="n">
-        <v>-27.08810290574992</v>
+        <v>5.322848765635914e-05</v>
       </c>
       <c r="H43" t="n">
-        <v>1.178670360115277</v>
+        <v>-1.237853073599574e-06</v>
       </c>
     </row>
     <row r="44">
@@ -1802,7 +1820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1811,7 +1829,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.2474147939728418</v>
+        <v>0.01927640638483552</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1822,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-12.19151075129659</v>
+        <v>-1.036861007953626e-06</v>
       </c>
       <c r="H44" t="n">
-        <v>129.0701810196167</v>
+        <v>0.009756049283929877</v>
       </c>
     </row>
     <row r="45">
@@ -1834,7 +1852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1843,7 +1861,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.4980188139132019</v>
+        <v>0.005465377710403384</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1854,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-76.99160518967747</v>
+        <v>-5.537993414725895e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>178.4239142916297</v>
+        <v>0.009757563107838079</v>
       </c>
     </row>
     <row r="46">
@@ -1866,7 +1884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1875,7 +1893,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.2401150655817765</v>
+        <v>0.01870571680083899</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1886,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.1006928432913863</v>
+        <v>-0.0001049032132781244</v>
       </c>
       <c r="H46" t="n">
-        <v>70.57822856786119</v>
+        <v>0.009755854838328942</v>
       </c>
     </row>
     <row r="47">
@@ -1898,7 +1916,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1907,7 +1925,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.2401150655817765</v>
+        <v>0.01870571680083899</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1918,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9042107246263098</v>
+        <v>0.9998951022888716</v>
       </c>
       <c r="H47" t="n">
-        <v>70.57822856786119</v>
+        <v>0.009755854838328942</v>
       </c>
     </row>
     <row r="48">
@@ -1930,7 +1948,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1939,7 +1957,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.4878424572345805</v>
+        <v>0.005129907527323295</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1950,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.6388582423390704</v>
+        <v>-0.000551050271033377</v>
       </c>
       <c r="H48" t="n">
-        <v>106.5979286646807</v>
+        <v>0.009757138607833751</v>
       </c>
     </row>
     <row r="49">
@@ -1962,7 +1980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
+          <t>bcsstm22.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1971,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.534681054100738</v>
+        <v>0.07781077744501924</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1979,13 +1997,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>251.3664057541429</v>
+        <v>0.009697758429768498</v>
       </c>
       <c r="G49" t="n">
-        <v>-68.6359221672317</v>
+        <v>1.094817442709586e-05</v>
       </c>
       <c r="H49" t="n">
-        <v>4.703700951327925</v>
+        <v>-5.447743379567636e-07</v>
       </c>
     </row>
     <row r="50">
@@ -1994,7 +2012,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2003,7 +2021,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.07807110996291654</v>
+        <v>0.2592382266441812</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2014,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.000165497227578006</v>
+        <v>0.005119157684156453</v>
       </c>
       <c r="H50" t="n">
-        <v>0.01301062344833156</v>
+        <v>12.96492269635067</v>
       </c>
     </row>
     <row r="51">
@@ -2026,7 +2044,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2035,7 +2053,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.2668968220894571</v>
+        <v>0.5507689608423204</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2046,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.003074203611633723</v>
+        <v>0.3374074598436499</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01808191146732328</v>
+        <v>11.96256493906368</v>
       </c>
     </row>
     <row r="52">
@@ -2058,7 +2076,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2067,7 +2085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0555990897923825</v>
+        <v>0.250357919929394</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2078,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.006953066314487858</v>
+        <v>0.0004011155579496928</v>
       </c>
       <c r="H52" t="n">
-        <v>0.01114724454036809</v>
+        <v>12.95111132199889</v>
       </c>
     </row>
     <row r="53">
@@ -2090,7 +2108,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2099,7 +2117,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0555990897923825</v>
+        <v>0.250357919929394</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2110,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9930710503238654</v>
+        <v>1.000401196015552</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01114724454036809</v>
+        <v>12.95111132199889</v>
       </c>
     </row>
     <row r="54">
@@ -2122,7 +2140,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2131,7 +2149,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.2178944894273976</v>
+        <v>0.5378186852617716</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2142,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1382868981474338</v>
+        <v>0.02658445422147965</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01410721706255125</v>
+        <v>11.96593911272855</v>
       </c>
     </row>
     <row r="55">
@@ -2154,7 +2172,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2163,7 +2181,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2057947645443822</v>
+        <v>0.5216616183601118</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2171,13 +2189,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.01740296205761576</v>
+        <v>12.47934279130549</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.001015627280987854</v>
+        <v>0.02659152813705987</v>
       </c>
       <c r="H55" t="n">
-        <v>2.833766844699493e-05</v>
+        <v>-0.0001690737830937273</v>
       </c>
     </row>
     <row r="56">
@@ -2186,7 +2204,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2195,7 +2213,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.1420547965535086</v>
+        <v>0.06310479306796872</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2206,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.0004915968786512861</v>
+        <v>0.003452524585520653</v>
       </c>
       <c r="H56" t="n">
-        <v>0.01561272253090468</v>
+        <v>13.22353978757465</v>
       </c>
     </row>
     <row r="57">
@@ -2218,7 +2236,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2227,7 +2245,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.3649727570605942</v>
+        <v>0.1474790425341079</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2238,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.005000355187633594</v>
+        <v>0.1588844471809109</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0210434840253041</v>
+        <v>12.80507001072336</v>
       </c>
     </row>
     <row r="58">
@@ -2250,7 +2268,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2259,7 +2277,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.1145960379833032</v>
+        <v>0.06566130033410658</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2270,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02197976219860454</v>
+        <v>0.0002773025445270918</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01264358750276276</v>
+        <v>13.21111058491635</v>
       </c>
     </row>
     <row r="59">
@@ -2282,7 +2300,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2291,7 +2309,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.1145960379833032</v>
+        <v>0.06566130033410658</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2302,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9782600326831338</v>
+        <v>1.000277340996432</v>
       </c>
       <c r="H59" t="n">
-        <v>0.01264358750276276</v>
+        <v>13.21111058491635</v>
       </c>
     </row>
     <row r="60">
@@ -2314,7 +2332,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2323,7 +2341,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.3152863225550739</v>
+        <v>0.1538240454742837</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2334,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2313557077652314</v>
+        <v>0.01277679290979237</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01636767235118823</v>
+        <v>12.77376297899108</v>
       </c>
     </row>
     <row r="61">
@@ -2346,7 +2364,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
+          <t>bcsstm12.mtx</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2355,7 +2373,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.341643682305299</v>
+        <v>0.1281198419495002</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2363,13 +2381,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.02323258964339967</v>
+        <v>12.99787997945546</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0028978707036497</v>
+        <v>0.01875149462749988</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0001336818791665785</v>
+        <v>-0.00019123712552474</v>
       </c>
     </row>
     <row r="62">
@@ -2378,7 +2396,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2387,7 +2405,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.01655541365835536</v>
+        <v>0.4249332111683115</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2398,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-2542.512991707155</v>
+        <v>2.389837432491387</v>
       </c>
       <c r="H62" t="n">
-        <v>1489388.73908792</v>
+        <v>2327.818305442509</v>
       </c>
     </row>
     <row r="63">
@@ -2410,7 +2428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2419,7 +2437,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.1160439802553834</v>
+        <v>0.7141520725069915</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2430,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-67626.95791971138</v>
+        <v>121.3432947261067</v>
       </c>
       <c r="H63" t="n">
-        <v>1617419.898547343</v>
+        <v>1997.926947172942</v>
       </c>
     </row>
     <row r="64">
@@ -2442,7 +2460,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2451,7 +2469,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.004916038728118563</v>
+        <v>0.3943538660610637</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2462,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0007824674321234953</v>
+        <v>0.001021836204077778</v>
       </c>
       <c r="H64" t="n">
-        <v>1461113.891740668</v>
+        <v>2322.604295365151</v>
       </c>
     </row>
     <row r="65">
@@ -2474,7 +2492,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2483,7 +2501,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.004916038728118563</v>
+        <v>0.3943538660610637</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2494,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9992178386156884</v>
+        <v>1.001022358456562</v>
       </c>
       <c r="H65" t="n">
-        <v>1461113.891740668</v>
+        <v>2322.604295365151</v>
       </c>
     </row>
     <row r="66">
@@ -2506,7 +2524,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2515,7 +2533,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.0720618403248415</v>
+        <v>0.6799195576442246</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2526,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03009724047730785</v>
+        <v>0.05255080969456195</v>
       </c>
       <c r="H66" t="n">
-        <v>1554906.141326796</v>
+        <v>2011.96419993791</v>
       </c>
     </row>
     <row r="67">
@@ -2538,7 +2556,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2547,7 +2565,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.07910245334941177</v>
+        <v>0.6846084836527921</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2555,13 +2573,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1591932.948458645</v>
+        <v>2174.355265538036</v>
       </c>
       <c r="G67" t="n">
-        <v>-22389.77932152506</v>
+        <v>10.28472865653855</v>
       </c>
       <c r="H67" t="n">
-        <v>661.5755443272645</v>
+        <v>-0.07310084466710345</v>
       </c>
     </row>
     <row r="68">
@@ -2570,7 +2588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2579,7 +2597,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.06548517832452971</v>
+        <v>0.01429092627191557</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2590,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-12156.01479828068</v>
+        <v>-2.187782600393431</v>
       </c>
       <c r="H68" t="n">
-        <v>1575809.286549553</v>
+        <v>2620.414398811617</v>
       </c>
     </row>
     <row r="69">
@@ -2602,7 +2620,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2611,7 +2629,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.2202723511716208</v>
+        <v>0.02738668936402456</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2622,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-134501.9933007372</v>
+        <v>-82.19532305132249</v>
       </c>
       <c r="H69" t="n">
-        <v>1730322.305920992</v>
+        <v>2821.621187630852</v>
       </c>
     </row>
     <row r="70">
@@ -2634,7 +2652,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2643,7 +2661,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.04021370232777317</v>
+        <v>0.004803427253676171</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2654,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.005370565904450038</v>
+        <v>-0.0003721343237461917</v>
       </c>
       <c r="H70" t="n">
-        <v>1528044.522419697</v>
+        <v>2562.269318841609</v>
       </c>
     </row>
     <row r="71">
@@ -2666,7 +2684,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2675,7 +2693,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.04021370232777317</v>
+        <v>0.004803427253676171</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2686,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9946438298020572</v>
+        <v>0.999627934909643</v>
       </c>
       <c r="H71" t="n">
-        <v>1528044.522419697</v>
+        <v>2562.269318841609</v>
       </c>
     </row>
     <row r="72">
@@ -2698,7 +2716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2707,7 +2725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.1647199502056307</v>
+        <v>0.00911813129821076</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2718,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.06557452238810958</v>
+        <v>-0.01391491010330917</v>
       </c>
       <c r="H72" t="n">
-        <v>1655403.530057804</v>
+        <v>2650.884052003659</v>
       </c>
     </row>
     <row r="73">
@@ -2730,7 +2748,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
+          <t>bcsstm07.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2739,7 +2757,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.2063443687671016</v>
+        <v>0.02806923724210592</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2747,13 +2765,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1797643.149586094</v>
+        <v>2746.620350713572</v>
       </c>
       <c r="G73" t="n">
-        <v>-86100.63581046103</v>
+        <v>-11.72035981851966</v>
       </c>
       <c r="H73" t="n">
-        <v>4349.683588951791</v>
+        <v>0.1342616509595243</v>
       </c>
     </row>
     <row r="74">
@@ -2762,7 +2780,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2771,7 +2789,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.7499999995833339</v>
+        <v>0.2725727335058597</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2782,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.002331183488742937</v>
+        <v>0.9571539438991753</v>
       </c>
       <c r="H74" t="n">
-        <v>0.006475509687355097</v>
+        <v>147.2161520497708</v>
       </c>
     </row>
     <row r="75">
@@ -2794,7 +2812,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2803,7 +2821,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.8668309707991554</v>
+        <v>0.4777371090579312</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2814,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.004511190441138811</v>
+        <v>24.57275290721666</v>
       </c>
       <c r="H75" t="n">
-        <v>0.004507465440003073</v>
+        <v>95.61582489226159</v>
       </c>
     </row>
     <row r="76">
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2835,7 +2853,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.7499999974528287</v>
+        <v>0.2412327789062914</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2846,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.472219494583224</v>
+        <v>0.007101351376063589</v>
       </c>
       <c r="H76" t="n">
-        <v>0.01313223815180051</v>
+        <v>141.9704599804421</v>
       </c>
     </row>
     <row r="77">
@@ -2858,7 +2876,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2867,7 +2885,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.7499999974528287</v>
+        <v>0.2412327789062914</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2878,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2294157327234823</v>
+        <v>1.007126625763761</v>
       </c>
       <c r="H77" t="n">
-        <v>0.01313223815180051</v>
+        <v>141.9704599804421</v>
       </c>
     </row>
     <row r="78">
@@ -2890,7 +2908,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2899,7 +2917,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.8668309691274847</v>
+        <v>0.4345210770745156</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2910,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.848966006460739</v>
+        <v>0.1848191644738697</v>
       </c>
       <c r="H78" t="n">
-        <v>0.003789314323320178</v>
+        <v>96.07916958993795</v>
       </c>
     </row>
     <row r="79">
@@ -2922,7 +2940,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2931,7 +2949,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.999999999999998</v>
+        <v>0.5587001394203888</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2939,13 +2957,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.01424612132513221</v>
+        <v>103.3992373873857</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01165591745407547</v>
+        <v>5.637892602195516</v>
       </c>
       <c r="H79" t="n">
-        <v>0.002331183491333133</v>
+        <v>-0.09751538871450714</v>
       </c>
     </row>
     <row r="80">
@@ -2954,7 +2972,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2963,7 +2981,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.7499999995833339</v>
+        <v>0.3444485532810262</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2974,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.002331183488742937</v>
+        <v>5.562317609582937</v>
       </c>
       <c r="H80" t="n">
-        <v>0.006475509687355097</v>
+        <v>82.36803165197747</v>
       </c>
     </row>
     <row r="81">
@@ -2986,7 +3004,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2995,7 +3013,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.8668309707991554</v>
+        <v>0.4776510740330188</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3006,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.004511190441138811</v>
+        <v>78.09001065507677</v>
       </c>
       <c r="H81" t="n">
-        <v>0.004507465440003073</v>
+        <v>-39.03739232724738</v>
       </c>
     </row>
     <row r="82">
@@ -3018,7 +3036,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3027,7 +3045,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.7499999974528287</v>
+        <v>0.3786063596149915</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3038,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.472219494583224</v>
+        <v>0.05777017268352009</v>
       </c>
       <c r="H82" t="n">
-        <v>0.01313223815180051</v>
+        <v>66.08684388747247</v>
       </c>
     </row>
     <row r="83">
@@ -3050,7 +3068,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3059,7 +3077,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.7499999974528287</v>
+        <v>0.3786063596149915</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3070,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2294157327234823</v>
+        <v>1.059471472241834</v>
       </c>
       <c r="H83" t="n">
-        <v>0.01313223815180051</v>
+        <v>66.08684388747247</v>
       </c>
     </row>
     <row r="84">
@@ -3082,7 +3100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3091,7 +3109,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.8668309691274847</v>
+        <v>0.5205305593697991</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3102,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.848966006460739</v>
+        <v>0.8075684259296748</v>
       </c>
       <c r="H84" t="n">
-        <v>0.003789314323320178</v>
+        <v>18.89306303224598</v>
       </c>
     </row>
     <row r="85">
@@ -3114,7 +3132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
+          <t>bcsstm13.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3123,7 +3141,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.999999999999998</v>
+        <v>0.6203619402139566</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3131,13 +3149,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.01424612132513221</v>
+        <v>-85.05503384904769</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01165591745407547</v>
+        <v>34.66375174173537</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002331183491333133</v>
+        <v>-1.077830893783424</v>
       </c>
     </row>
     <row r="86">
@@ -3146,7 +3164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3155,7 +3173,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.1464977023788878</v>
+        <v>0.5705667008756719</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3166,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>3.567260045579059</v>
+        <v>1610.457450027055</v>
       </c>
       <c r="H86" t="n">
-        <v>2245.109434524466</v>
+        <v>1407639.081691578</v>
       </c>
     </row>
     <row r="87">
@@ -3178,7 +3196,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3187,7 +3205,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.2321059656323951</v>
+        <v>0.772177750858321</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3198,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>144.3445186373693</v>
+        <v>27124.88022559756</v>
       </c>
       <c r="H87" t="n">
-        <v>1901.417251819359</v>
+        <v>1361151.485633375</v>
       </c>
     </row>
     <row r="88">
@@ -3210,7 +3228,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3219,7 +3237,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.1167861799518628</v>
+        <v>0.5666185125137163</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3230,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002100052876226493</v>
+        <v>0.001131556984648789</v>
       </c>
       <c r="H88" t="n">
-        <v>2153.843790617325</v>
+        <v>1407593.95608286</v>
       </c>
     </row>
     <row r="89">
@@ -3242,7 +3260,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3251,7 +3269,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.1167861799518628</v>
+        <v>0.5666185125137163</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3262,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>1.002102259531695</v>
+        <v>1.0011321974368</v>
       </c>
       <c r="H89" t="n">
-        <v>2153.843790617325</v>
+        <v>1407593.95608286</v>
       </c>
     </row>
     <row r="90">
@@ -3274,7 +3292,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3283,7 +3301,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.2431311594529174</v>
+        <v>0.7684590763567564</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3294,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09740754460463436</v>
+        <v>0.01907895420182016</v>
       </c>
       <c r="H90" t="n">
-        <v>1680.927002003478</v>
+        <v>1362284.769638366</v>
       </c>
     </row>
     <row r="91">
@@ -3306,7 +3324,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3315,7 +3333,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.2453704783065823</v>
+        <v>0.8830831079823457</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3323,13 +3341,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2044.514755961088</v>
+        <v>1363737.453168755</v>
       </c>
       <c r="G91" t="n">
-        <v>15.02981310634351</v>
+        <v>7908.581373132519</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.1102168563535044</v>
+        <v>-185.2389389148656</v>
       </c>
     </row>
     <row r="92">
@@ -3338,7 +3356,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3347,7 +3365,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.004548420280001545</v>
+        <v>0.5627338810786949</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3358,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>1.600149325651254</v>
+        <v>993.7727578053108</v>
       </c>
       <c r="H92" t="n">
-        <v>2448.307899424121</v>
+        <v>1430974.680336305</v>
       </c>
     </row>
     <row r="93">
@@ -3370,7 +3388,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3379,7 +3397,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.01357095903373344</v>
+        <v>0.7039399322423326</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3390,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>58.53323087862779</v>
+        <v>10718.82818003527</v>
       </c>
       <c r="H93" t="n">
-        <v>2312.538174690526</v>
+        <v>1416850.845502867</v>
       </c>
     </row>
     <row r="94">
@@ -3402,7 +3420,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3411,7 +3429,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.03773610619405368</v>
+        <v>0.5617301961739023</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3422,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002448444957937656</v>
+        <v>0.0006911087360927998</v>
       </c>
       <c r="H94" t="n">
-        <v>2255.208816457043</v>
+        <v>1430980.129475827</v>
       </c>
     </row>
     <row r="95">
@@ -3434,7 +3452,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3443,7 +3461,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.03773610619405368</v>
+        <v>0.5617301961739023</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3454,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>1.002451444847149</v>
+        <v>1.000691347606761</v>
       </c>
       <c r="H95" t="n">
-        <v>2255.208816457043</v>
+        <v>1430980.129475827</v>
       </c>
     </row>
     <row r="96">
@@ -3466,7 +3484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3475,7 +3493,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.09683582520548799</v>
+        <v>0.7029359021760476</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3486,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>0.08306093953495886</v>
+        <v>0.007455629418426916</v>
       </c>
       <c r="H96" t="n">
-        <v>1871.11656450467</v>
+        <v>1416989.126686769</v>
       </c>
     </row>
     <row r="97">
@@ -3498,7 +3516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
+          <t>bcsstm08.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3507,7 +3525,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.01505611047099229</v>
+        <v>0.8777421978168342</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3515,13 +3533,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2339.885877958371</v>
+        <v>1407042.683415451</v>
       </c>
       <c r="G97" t="n">
-        <v>11.16679827851156</v>
+        <v>6104.673795140426</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.1427858052665717</v>
+        <v>-243.3762398731068</v>
       </c>
     </row>
     <row r="98">
@@ -3530,7 +3548,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3538,9 +3556,7 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>0.00894383546327595</v>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>Linear</t>
@@ -3549,12 +3565,8 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="n">
-        <v>-15206.64049465349</v>
-      </c>
-      <c r="H98" t="n">
-        <v>40773241.03548954</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3562,7 +3574,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3570,9 +3582,7 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>0.08130160874639124</v>
-      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>Logaritmo</t>
@@ -3581,12 +3591,8 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="n">
-        <v>-1838740.425699882</v>
-      </c>
-      <c r="H99" t="n">
-        <v>46936028.28870592</v>
-      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3594,7 +3600,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3602,9 +3608,7 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>0.002356544010572445</v>
-      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -3613,12 +3617,8 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="n">
-        <v>-0.0001180569651682658</v>
-      </c>
-      <c r="H100" t="n">
-        <v>39853620.91184795</v>
-      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3634,9 +3634,7 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>0.002356544010572445</v>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -3645,12 +3643,8 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="n">
-        <v>0.9998819500032811</v>
-      </c>
-      <c r="H101" t="n">
-        <v>39853620.91184795</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3658,7 +3652,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3666,9 +3660,7 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>0.04577482857053144</v>
-      </c>
+      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -3677,12 +3669,8 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="G102" t="n">
-        <v>-0.02086732005356661</v>
-      </c>
-      <c r="H102" t="n">
-        <v>42893653.78726942</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3690,7 +3678,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3698,22 +3686,30 @@
           <t>MP</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>0.03170112559189621</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>Polinomial</t>
         </is>
       </c>
-      <c r="F103" t="n">
-        <v>42856193.25071622</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-109886.2866413221</v>
-      </c>
-      <c r="H103" t="n">
-        <v>722.7453904325865</v>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
       </c>
     </row>
     <row r="104">
@@ -3722,7 +3718,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3730,9 +3726,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>0.008763322554857022</v>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>Linear</t>
@@ -3741,12 +3735,8 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="n">
-        <v>-30349.18022619286</v>
-      </c>
-      <c r="H104" t="n">
-        <v>41377464.54266383</v>
-      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3754,7 +3744,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3762,9 +3752,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>0.0760364374404324</v>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>Logaritmo</t>
@@ -3773,12 +3761,8 @@
       <c r="F105" t="n">
         <v>0</v>
       </c>
-      <c r="G105" t="n">
-        <v>-2450791.281101172</v>
-      </c>
-      <c r="H105" t="n">
-        <v>48625133.85440584</v>
-      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3786,7 +3770,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3794,9 +3778,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>0.0001118965967833892</v>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -3805,12 +3787,8 @@
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
-        <v>-6.037247964679734e-05</v>
-      </c>
-      <c r="H106" t="n">
-        <v>39648818.43695468</v>
-      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3818,7 +3796,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3826,9 +3804,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>0.0001118965967833892</v>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -3837,12 +3813,8 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
-        <v>0.9999396293427347</v>
-      </c>
-      <c r="H107" t="n">
-        <v>39648818.43695468</v>
-      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3850,7 +3822,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3858,9 +3830,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>0.02507828516293092</v>
-      </c>
+      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -3869,12 +3839,8 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="G108" t="n">
-        <v>-0.0247777788957823</v>
-      </c>
-      <c r="H108" t="n">
-        <v>43128334.84211953</v>
-      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3882,7 +3848,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
+          <t>bcsstm09.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3890,22 +3856,30 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>0.02680412198706869</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Polinomial</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>43908528.07744942</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-200982.6769533109</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1939.01700826271</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>erro</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -3914,7 +3888,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3923,7 +3897,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.002153871797056312</v>
+        <v>0.6616279483817005</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3934,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2808433538716099</v>
+        <v>37.72372777648104</v>
       </c>
       <c r="H110" t="n">
-        <v>166.4724077080583</v>
+        <v>24183.99910999835</v>
       </c>
     </row>
     <row r="111">
@@ -3946,7 +3920,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3955,7 +3929,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.01307020594190784</v>
+        <v>0.8323083349530649</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3966,10 +3940,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-9.886190961676624</v>
+        <v>2166.94304529985</v>
       </c>
       <c r="H111" t="n">
-        <v>200.5928045635279</v>
+        <v>18127.8474844477</v>
       </c>
     </row>
     <row r="112">
@@ -3978,7 +3952,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3987,7 +3961,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.1173724286074218</v>
+        <v>0.6568288404871665</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3998,10 +3972,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01016188241905503</v>
+        <v>0.001455840679896366</v>
       </c>
       <c r="H112" t="n">
-        <v>129.0549389190479</v>
+        <v>24162.5021897412</v>
       </c>
     </row>
     <row r="113">
@@ -4010,7 +3984,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4019,7 +3993,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.1173724286074218</v>
+        <v>0.6568288404871665</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4030,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>1.010213689683942</v>
+        <v>1.001456900930395</v>
       </c>
       <c r="H113" t="n">
-        <v>129.0549389190479</v>
+        <v>24162.5021897412</v>
       </c>
     </row>
     <row r="114">
@@ -4042,7 +4016,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4051,7 +4025,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.1010898032811151</v>
+        <v>0.8334462357439678</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4062,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1347653828717699</v>
+        <v>0.08398935229135641</v>
       </c>
       <c r="H114" t="n">
-        <v>110.2670743099333</v>
+        <v>19098.48217004953</v>
       </c>
     </row>
     <row r="115">
@@ -4074,7 +4048,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4083,7 +4057,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.005623466424064875</v>
+        <v>0.9108810092239608</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4091,13 +4065,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>177.0784896578074</v>
+        <v>21719.29802178837</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.133300906094953</v>
+        <v>133.3004499222068</v>
       </c>
       <c r="H115" t="n">
-        <v>0.03213964227196733</v>
+        <v>-0.6546350831899033</v>
       </c>
     </row>
     <row r="116">
@@ -4106,7 +4080,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4115,7 +4089,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0003882303051991943</v>
+        <v>0.003559425271521583</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4126,10 +4100,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>0.3426849993522483</v>
+        <v>104.8246555331079</v>
       </c>
       <c r="H116" t="n">
-        <v>161.7183158574596</v>
+        <v>17229.9532239736</v>
       </c>
     </row>
     <row r="117">
@@ -4138,7 +4112,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4147,7 +4121,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.04254337871509971</v>
+        <v>0.0004814249260861454</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4158,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-28.33303427376235</v>
+        <v>1198.345826680749</v>
       </c>
       <c r="H117" t="n">
-        <v>228.0835407377969</v>
+        <v>17341.53661928803</v>
       </c>
     </row>
     <row r="118">
@@ -4170,7 +4144,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4178,9 +4152,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>0.1513086612347703</v>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>Exponencial</t>
@@ -4189,12 +4161,8 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="n">
-        <v>0.0375962801177295</v>
-      </c>
-      <c r="H118" t="n">
-        <v>89.81525391445658</v>
-      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4202,7 +4170,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4210,9 +4178,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>0.1513086612347703</v>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>Geometrico</t>
@@ -4221,12 +4187,8 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
-      <c r="G119" t="n">
-        <v>1.038311961067327</v>
-      </c>
-      <c r="H119" t="n">
-        <v>89.81525391445658</v>
-      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4234,7 +4196,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4242,9 +4204,7 @@
           <t>MP_Aitken</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>0.0508645554366939</v>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>Potencial</t>
@@ -4253,12 +4213,8 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="n">
-        <v>0.1721659762594677</v>
-      </c>
-      <c r="H120" t="n">
-        <v>94.7071836387919</v>
-      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4266,7 +4222,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
+          <t>bcsstm10.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4275,7 +4231,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.06198668711458917</v>
+        <v>0.01972255834167911</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4283,13 +4239,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>231.9200970995385</v>
+        <v>32036.11769167207</v>
       </c>
       <c r="G121" t="n">
-        <v>-17.20776031116743</v>
+        <v>-865.8796500111035</v>
       </c>
       <c r="H121" t="n">
-        <v>0.7630628395878118</v>
+        <v>11.69523259691821</v>
       </c>
     </row>
   </sheetData>
